--- a/resources/experiment 1/metrics/MAPE/upto time/Infarto de Miocardio (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Infarto de Miocardio (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18862192906001.48</v>
+        <v>64990492163129.3</v>
       </c>
       <c r="C3" t="n">
-        <v>18862192906001.48</v>
+        <v>63815704116543.59</v>
       </c>
       <c r="D3" t="n">
-        <v>18862192906001.48</v>
+        <v>19694966908024.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34088922956215.11</v>
+        <v>20369970566000.13</v>
       </c>
       <c r="C4" t="n">
-        <v>34088922956215.12</v>
+        <v>20369970566000.13</v>
       </c>
       <c r="D4" t="n">
-        <v>34088922956215.12</v>
+        <v>18481125231428.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43384628847438.54</v>
+        <v>120646324675591.2</v>
       </c>
       <c r="C5" t="n">
-        <v>43384628847438.54</v>
+        <v>120373777549764.1</v>
       </c>
       <c r="D5" t="n">
-        <v>43384628847438.54</v>
+        <v>128381669412927.2</v>
       </c>
     </row>
   </sheetData>
